--- a/src/main/resources/dm+d Content For Terminology Server.xlsx
+++ b/src/main/resources/dm+d Content For Terminology Server.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\NHS\NHS-bid\Resource\Dm+d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819BDFF-8871-4DD1-9734-83A85A54348B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A96197F-D970-4AF2-954F-E89F36B7132C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="1" activeTab="3" xr2:uid="{E4FEC5D8-34F4-4D96-A764-08463DDE1598}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="10200" firstSheet="4" activeTab="9" xr2:uid="{E4FEC5D8-34F4-4D96-A764-08463DDE1598}"/>
   </bookViews>
   <sheets>
     <sheet name="Additional" sheetId="4" r:id="rId1"/>
@@ -24,25 +19,18 @@
     <sheet name="Bonus(Supplementary)" sheetId="11" r:id="rId9"/>
     <sheet name="Lookup" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A25:K33"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="318">
   <si>
     <t>XML element / table</t>
   </si>
@@ -995,6 +983,9 @@
   </si>
   <si>
     <t>&lt;ONTFORMCD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LOOKUP&gt;/&lt;DND&gt;/&lt;INFO&gt;</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1144,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1162,9 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1539,32 +1530,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>215</v>
       </c>
@@ -1580,7 +1571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -1588,12 +1579,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>282</v>
       </c>
@@ -1605,6 +1596,7 @@
     <hyperlink ref="B10" r:id="rId3" xr:uid="{A5526281-85E0-498C-AFB6-FA8172774FE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1612,26 +1604,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6069D84-28D5-4B5B-A39D-9D4547A688C9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>301</v>
       </c>
@@ -1639,7 +1631,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1650,21 +1642,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>304</v>
       </c>
@@ -1672,7 +1664,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>305</v>
       </c>
@@ -1680,12 +1672,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -1699,35 +1691,35 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>307</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>308</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>309</v>
       </c>
@@ -1735,7 +1727,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>305</v>
       </c>
@@ -1743,17 +1735,17 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
@@ -1766,35 +1758,35 @@
       <c r="D26" s="36"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>307</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>308</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>114</v>
       </c>
@@ -1814,7 +1806,7 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1829,16 +1821,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1839,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1856,10 +1848,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1891,7 +1883,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1898,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +1911,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1949,7 +1941,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1956,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1972,7 +1964,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1974,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1992,13 +1984,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2016,7 @@
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -2038,32 +2030,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2079,23 +2071,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD04BF5-32C3-4BDE-B7FF-178FFBEE2960}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6328125" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2096,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2113,10 +2105,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -2142,7 +2134,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -2160,7 +2152,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -2178,7 +2170,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -2196,7 +2188,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -2214,7 +2206,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -2232,7 +2224,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -2248,7 +2240,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2258,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2306,7 +2298,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -2322,7 +2314,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -2344,7 +2336,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2358,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -2388,7 +2380,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -2410,7 +2402,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -2428,7 +2420,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -2446,7 +2438,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
@@ -2464,7 +2456,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2474,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2498,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2524,7 +2516,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
@@ -2564,7 +2556,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
@@ -2588,7 +2580,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>46</v>
       </c>
@@ -2612,7 +2604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>7</v>
       </c>
@@ -2625,7 +2617,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2630,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
@@ -2651,7 +2643,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="18" t="s">
         <v>78</v>
@@ -2662,7 +2654,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="17"/>
@@ -2671,7 +2663,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2689,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2707,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>69</v>
       </c>
@@ -2737,7 +2729,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>70</v>
       </c>
@@ -2759,7 +2751,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>71</v>
       </c>
@@ -2781,7 +2773,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>72</v>
       </c>
@@ -2799,7 +2791,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>73</v>
       </c>
@@ -2823,7 +2815,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>74</v>
       </c>
@@ -2841,7 +2833,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>75</v>
       </c>
@@ -2865,7 +2857,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2873,7 +2865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2889,10 +2881,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +2910,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>26</v>
       </c>
@@ -2936,11 +2928,11 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>316</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="39"/>
@@ -2948,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="39"/>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="41" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="39" t="s">
@@ -2958,7 +2950,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2982,15 +2974,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>15</v>
       </c>
@@ -3016,7 +3008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>26</v>
       </c>
@@ -3034,7 +3026,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>86</v>
       </c>
@@ -3058,7 +3050,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3066,7 +3058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -3082,15 +3074,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>15</v>
       </c>
@@ -3116,7 +3108,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>26</v>
       </c>
@@ -3134,7 +3126,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>138</v>
       </c>
@@ -3158,7 +3150,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3166,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3182,10 +3174,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>15</v>
       </c>
@@ -3211,7 +3203,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>26</v>
       </c>
@@ -3229,7 +3221,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3243,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>99</v>
       </c>
@@ -3269,7 +3261,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>100</v>
       </c>
@@ -3291,7 +3283,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
@@ -3299,7 +3291,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>14</v>
       </c>
@@ -3309,7 +3301,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -3319,13 +3311,13 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>15</v>
       </c>
@@ -3339,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>26</v>
       </c>
@@ -3351,7 +3343,7 @@
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>105</v>
       </c>
@@ -3365,17 +3357,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>14</v>
       </c>
@@ -3385,7 +3377,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -3395,13 +3387,13 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>15</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>26</v>
       </c>
@@ -3427,7 +3419,7 @@
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>109</v>
       </c>
@@ -3441,22 +3433,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>148</v>
       </c>
@@ -3475,19 +3467,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -3529,7 +3521,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>105</v>
       </c>
@@ -3547,7 +3539,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -3565,7 +3557,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -3583,7 +3575,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -3599,7 +3591,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -3617,7 +3609,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>114</v>
       </c>
@@ -3633,7 +3625,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3643,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>115</v>
       </c>
@@ -3667,7 +3659,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>116</v>
       </c>
@@ -3691,7 +3683,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>117</v>
       </c>
@@ -3713,7 +3705,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>118</v>
       </c>
@@ -3735,7 +3727,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>119</v>
       </c>
@@ -3757,7 +3749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>120</v>
       </c>
@@ -3775,7 +3767,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -3797,7 +3789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>121</v>
       </c>
@@ -3819,7 +3811,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>122</v>
       </c>
@@ -3839,7 +3831,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>123</v>
       </c>
@@ -3855,7 +3847,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>124</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3882,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3895,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -3916,7 +3908,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="18" t="s">
         <v>134</v>
@@ -3927,18 +3919,18 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="17"/>
@@ -3947,7 +3939,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +3965,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>105</v>
       </c>
@@ -3991,7 +3983,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>69</v>
       </c>
@@ -4009,7 +4001,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>135</v>
       </c>
@@ -4027,7 +4019,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>136</v>
       </c>
@@ -4051,7 +4043,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4067,7 +4059,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -4075,7 +4067,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
@@ -4101,7 +4093,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>105</v>
       </c>
@@ -4119,7 +4111,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>138</v>
       </c>
@@ -4143,7 +4135,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -4151,7 +4143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4151,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -4167,7 +4159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>15</v>
       </c>
@@ -4193,7 +4185,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>105</v>
       </c>
@@ -4211,7 +4203,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4219,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>142</v>
       </c>
@@ -4249,7 +4241,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>143</v>
       </c>
@@ -4265,7 +4257,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>22</v>
       </c>
@@ -4273,7 +4265,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>14</v>
       </c>
@@ -4283,7 +4275,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -4293,13 +4285,13 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>15</v>
       </c>
@@ -4313,7 +4305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>151</v>
       </c>
@@ -4339,22 +4331,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>154</v>
       </c>
@@ -4376,19 +4368,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4397,7 +4389,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4406,10 +4398,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -4435,7 +4427,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -4453,7 +4445,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -4471,7 +4463,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -4487,7 +4479,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -4505,7 +4497,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -4523,7 +4515,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>157</v>
       </c>
@@ -4541,7 +4533,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>158</v>
       </c>
@@ -4565,7 +4557,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>159</v>
       </c>
@@ -4587,7 +4579,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -4596,7 +4588,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +4597,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -4614,16 +4606,16 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -4649,7 +4641,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>109</v>
       </c>
@@ -4667,7 +4659,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>162</v>
       </c>
@@ -4689,7 +4681,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>163</v>
       </c>
@@ -4707,7 +4699,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>164</v>
       </c>
@@ -4725,7 +4717,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>165</v>
       </c>
@@ -4743,7 +4735,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4752,7 +4744,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4753,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -4770,22 +4762,22 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
@@ -4811,7 +4803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>171</v>
       </c>
@@ -4829,7 +4821,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>172</v>
       </c>
@@ -4847,7 +4839,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>22</v>
       </c>
@@ -4855,7 +4847,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
@@ -4865,7 +4857,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -4875,13 +4867,13 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
@@ -4895,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -4907,7 +4899,7 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>109</v>
       </c>
@@ -4921,36 +4913,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="45"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>147</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>154</v>
       </c>
@@ -4970,23 +4962,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8777C9E4-3C94-4529-9B04-DF1F036993CC}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4995,7 +4987,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5004,10 +4996,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -5033,7 +5025,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>151</v>
       </c>
@@ -5051,7 +5043,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -5069,7 +5061,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -5085,7 +5077,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -5103,7 +5095,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>109</v>
       </c>
@@ -5121,7 +5113,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>105</v>
       </c>
@@ -5139,7 +5131,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>159</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>177</v>
       </c>
@@ -5183,7 +5175,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>178</v>
       </c>
@@ -5199,7 +5191,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>179</v>
       </c>
@@ -5223,7 +5215,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>180</v>
       </c>
@@ -5241,7 +5233,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5250,7 +5242,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -5259,7 +5251,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -5268,16 +5260,16 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -5303,7 +5295,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
@@ -5321,7 +5313,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>185</v>
       </c>
@@ -5343,7 +5335,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>186</v>
       </c>
@@ -5361,7 +5353,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>187</v>
       </c>
@@ -5383,7 +5375,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>188</v>
       </c>
@@ -5399,7 +5391,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5408,7 +5400,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5409,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -5426,16 +5418,16 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>15</v>
       </c>
@@ -5461,7 +5453,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>151</v>
       </c>
@@ -5479,7 +5471,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>193</v>
       </c>
@@ -5497,7 +5489,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>194</v>
       </c>
@@ -5517,7 +5509,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>195</v>
       </c>
@@ -5537,7 +5529,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>196</v>
       </c>
@@ -5557,7 +5549,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>197</v>
       </c>
@@ -5575,7 +5567,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>198</v>
       </c>
@@ -5595,7 +5587,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>199</v>
       </c>
@@ -5615,7 +5607,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>200</v>
       </c>
@@ -5635,7 +5627,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>201</v>
       </c>
@@ -5655,7 +5647,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -5664,7 +5656,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5673,7 +5665,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -5682,16 +5674,16 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>15</v>
       </c>
@@ -5717,7 +5709,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>151</v>
       </c>
@@ -5735,7 +5727,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>163</v>
       </c>
@@ -5753,7 +5745,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>222</v>
       </c>
@@ -5771,7 +5763,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>223</v>
       </c>
@@ -5789,7 +5781,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>224</v>
       </c>
@@ -5811,7 +5803,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -5820,7 +5812,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5829,7 +5821,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -5838,16 +5830,16 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>15</v>
       </c>
@@ -5873,7 +5865,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>151</v>
       </c>
@@ -5891,7 +5883,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>227</v>
       </c>
@@ -5909,7 +5901,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>228</v>
       </c>
@@ -5927,7 +5919,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>229</v>
       </c>
@@ -5947,7 +5939,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>230</v>
       </c>
@@ -5967,7 +5959,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>231</v>
       </c>
@@ -5987,7 +5979,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>232</v>
       </c>
@@ -6011,7 +6003,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>233</v>
       </c>
@@ -6027,11 +6019,15 @@
       <c r="E71" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>234</v>
       </c>
@@ -6051,7 +6047,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6060,7 +6056,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -6069,7 +6065,7 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -6078,16 +6074,16 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>15</v>
       </c>
@@ -6113,7 +6109,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>251</v>
       </c>
@@ -6131,7 +6127,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>252</v>
       </c>
@@ -6149,7 +6145,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>7</v>
       </c>
@@ -6165,7 +6161,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
         <v>0</v>
       </c>
@@ -6179,7 +6175,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
         <v>139</v>
       </c>
@@ -6193,7 +6189,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="17" t="s">
         <v>277</v>
@@ -6205,7 +6201,7 @@
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>276</v>
@@ -6217,7 +6213,7 @@
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -6227,7 +6223,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>15</v>
       </c>
@@ -6253,7 +6249,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
         <v>271</v>
       </c>
@@ -6271,7 +6267,7 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>272</v>
       </c>
@@ -6289,7 +6285,7 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>273</v>
       </c>
@@ -6307,7 +6303,7 @@
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>274</v>
       </c>
@@ -6325,7 +6321,7 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>22</v>
       </c>
@@ -6333,13 +6329,13 @@
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>261</v>
       </c>
@@ -6347,31 +6343,31 @@
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>147</v>
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>262</v>
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
         <v>263</v>
       </c>
@@ -6386,19 +6382,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5C58CA-C257-45A7-BD39-81C7BA945853}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6403,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6416,10 +6412,10 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
@@ -6442,7 +6438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
@@ -6459,7 +6455,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>255</v>
       </c>
@@ -6476,7 +6472,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>256</v>
       </c>
@@ -6493,7 +6489,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -6508,7 +6504,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -6521,20 +6517,20 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>262</v>
       </c>
@@ -6551,18 +6547,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6571,7 +6567,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6580,7 +6576,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>285</v>
       </c>
@@ -6589,7 +6585,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -6598,16 +6594,16 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -6630,7 +6626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -6645,7 +6641,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>288</v>
       </c>
@@ -6662,7 +6658,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>289</v>
       </c>
@@ -6677,7 +6673,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>290</v>
       </c>
@@ -6692,7 +6688,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>291</v>
       </c>
@@ -6709,7 +6705,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -6718,7 +6714,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -6727,7 +6723,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -6736,7 +6732,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>287</v>
       </c>
@@ -6745,16 +6741,16 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>299</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>105</v>
       </c>
@@ -6792,7 +6788,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>288</v>
       </c>
@@ -6815,12 +6811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D67B361265A8E43B8E2972A614482EA" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6528afff5fe17c859a731080d7a5cb26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c14b7d31-a045-4729-8fd1-3a82491d6f32" xmlns:ns3="45432088-479e-47e4-b134-38118664bbd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="486faa1504656023f6421908556c0d5f" ns2:_="" ns3:_="">
     <xsd:import namespace="c14b7d31-a045-4729-8fd1-3a82491d6f32"/>
@@ -7031,7 +7021,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7040,24 +7030,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C182F583-C638-40C7-8E73-92DB861EE88C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="45432088-479e-47e4-b134-38118664bbd6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c14b7d31-a045-4729-8fd1-3a82491d6f32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AF3BFD9-0262-4DC4-84F9-C6BAA9D4E8E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7076,10 +7055,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DF2BA3-D849-424F-A142-F8F3921CD327}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C182F583-C638-40C7-8E73-92DB861EE88C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="45432088-479e-47e4-b134-38118664bbd6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c14b7d31-a045-4729-8fd1-3a82491d6f32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/dm+d Content For Terminology Server.xlsx
+++ b/src/main/resources/dm+d Content For Terminology Server.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A96197F-D970-4AF2-954F-E89F36B7132C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zha12j\git\fhir-tx-transforms\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0843151-FE90-4900-988D-956788975005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="10200" firstSheet="4" activeTab="9" xr2:uid="{E4FEC5D8-34F4-4D96-A764-08463DDE1598}"/>
+    <workbookView xWindow="345" yWindow="870" windowWidth="28800" windowHeight="15435" firstSheet="4" activeTab="9" xr2:uid="{E4FEC5D8-34F4-4D96-A764-08463DDE1598}"/>
   </bookViews>
   <sheets>
     <sheet name="Additional" sheetId="4" r:id="rId1"/>
@@ -20,7 +25,6 @@
     <sheet name="Lookup" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A25:K33"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="318">
   <si>
     <t>XML element / table</t>
   </si>
@@ -1604,7 +1608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6069D84-28D5-4B5B-A39D-9D4547A688C9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1703,7 +1709,9 @@
         <v>307</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
@@ -1770,7 +1778,9 @@
         <v>307</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
@@ -6811,6 +6821,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D67B361265A8E43B8E2972A614482EA" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6528afff5fe17c859a731080d7a5cb26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c14b7d31-a045-4729-8fd1-3a82491d6f32" xmlns:ns3="45432088-479e-47e4-b134-38118664bbd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="486faa1504656023f6421908556c0d5f" ns2:_="" ns3:_="">
     <xsd:import namespace="c14b7d31-a045-4729-8fd1-3a82491d6f32"/>
@@ -7021,15 +7040,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7037,6 +7047,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DF2BA3-D849-424F-A142-F8F3921CD327}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AF3BFD9-0262-4DC4-84F9-C6BAA9D4E8E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7051,14 +7069,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DF2BA3-D849-424F-A142-F8F3921CD327}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
